--- a/show/test.xlsx
+++ b/show/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode Project\show\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA9EE2-4D1C-450F-BAE4-C38AEB6B2A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3471F69-16BC-4509-96FA-FCD0DBBDDCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>trade day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,8 +65,79 @@
     <t>2025-9-5</t>
   </si>
   <si>
-    <t>夏普123/test4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2025-9-6</t>
+  </si>
+  <si>
+    <t>2025-9-7</t>
+  </si>
+  <si>
+    <t>2025-9-8</t>
+  </si>
+  <si>
+    <t>2025-9-9</t>
+  </si>
+  <si>
+    <t>2025-9-10</t>
+  </si>
+  <si>
+    <t>2025-9-11</t>
+  </si>
+  <si>
+    <t>2025-9-12</t>
+  </si>
+  <si>
+    <t>2025-9-13</t>
+  </si>
+  <si>
+    <t>2025-9-14</t>
+  </si>
+  <si>
+    <t>2025-9-15</t>
+  </si>
+  <si>
+    <t>2025-9-16</t>
+  </si>
+  <si>
+    <t>2025-9-17</t>
+  </si>
+  <si>
+    <t>2025-9-18</t>
+  </si>
+  <si>
+    <t>2025-9-19</t>
+  </si>
+  <si>
+    <t>2025-9-20</t>
+  </si>
+  <si>
+    <t>2025-9-21</t>
+  </si>
+  <si>
+    <t>2025-9-22</t>
+  </si>
+  <si>
+    <t>2025-9-23</t>
+  </si>
+  <si>
+    <t>2025-9-24</t>
+  </si>
+  <si>
+    <t>2025-9-25</t>
+  </si>
+  <si>
+    <t>2025-9-26</t>
+  </si>
+  <si>
+    <t>2025-9-27</t>
+  </si>
+  <si>
+    <t>2025-9-28</t>
+  </si>
+  <si>
+    <t>2025-9-29</t>
+  </si>
+  <si>
+    <t>2025-9-30</t>
   </si>
 </sst>
 </file>
@@ -118,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,10 +199,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -643,97 +711,547 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
+      <c r="B2">
+        <f ca="1">ROUND(RAND(),2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="C2">
+        <f ca="1">ROUND(RAND(),2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2">
+        <f ca="1">ROUND(RAND(),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:D31" ca="1" si="0">ROUND(RAND(),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>-0.9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.97</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>-1.9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>-2.9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.97</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
